--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Competative Programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1729D89A-DB12-408B-B93A-33051968C559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922512A7-CFD6-4AEE-83F8-258E21ABC3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3598,7 +3598,7 @@
         <v>162</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Competative Programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922512A7-CFD6-4AEE-83F8-258E21ABC3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328CC8C-8D07-4C0B-BB1F-C197DF450C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3620,7 +3620,7 @@
         <v>164</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="21">
@@ -3631,7 +3631,7 @@
         <v>165</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="21">
@@ -3642,7 +3642,7 @@
         <v>166</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Competative Programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328CC8C-8D07-4C0B-BB1F-C197DF450C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A0B748-32B7-4A0E-AF16-EF4A9FE335C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3444,7 +3444,7 @@
         <v>148</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21">
@@ -3543,7 +3543,7 @@
         <v>157</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="21">
@@ -3653,7 +3653,7 @@
         <v>167</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="21">
@@ -3664,7 +3664,7 @@
         <v>168</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="21">
@@ -3675,7 +3675,7 @@
         <v>169</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="21">
@@ -3686,7 +3686,7 @@
         <v>170</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Competative Programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A0B748-32B7-4A0E-AF16-EF4A9FE335C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F6DF43-4F8B-42B1-9822-015ABB1AEE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1854,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
